--- a/Code/Results/Cases/Case_0_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_124/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1996753664827793</v>
+        <v>0.05059810356398486</v>
       </c>
       <c r="D2">
-        <v>0.211755709582512</v>
+        <v>0.0006430556880925309</v>
       </c>
       <c r="E2">
-        <v>12.42516102330785</v>
+        <v>2.608837342548384</v>
       </c>
       <c r="F2">
-        <v>3.44406710531014</v>
+        <v>0.5402577795658345</v>
       </c>
       <c r="G2">
-        <v>4.259060647519618</v>
+        <v>0.4325427887200703</v>
       </c>
       <c r="H2">
-        <v>1.773134680183659</v>
+        <v>0.4446359103562543</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>47.42305542154872</v>
+        <v>10.73710316726812</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1595982939295908</v>
+        <v>0.04475810675957348</v>
       </c>
       <c r="D3">
-        <v>0.1127729317898658</v>
+        <v>0.0006460611429641716</v>
       </c>
       <c r="E3">
-        <v>9.080895116182546</v>
+        <v>2.27040816450031</v>
       </c>
       <c r="F3">
-        <v>2.186922047877331</v>
+        <v>0.5277602964918913</v>
       </c>
       <c r="G3">
-        <v>2.654805571203156</v>
+        <v>0.4120367656891659</v>
       </c>
       <c r="H3">
-        <v>1.076112572712219</v>
+        <v>0.4544622653583588</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.52704901494047</v>
+        <v>9.380339139148703</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1399314181693114</v>
+        <v>0.04120514426897159</v>
       </c>
       <c r="D4">
-        <v>0.08097626483722409</v>
+        <v>0.0007645364648176667</v>
       </c>
       <c r="E4">
-        <v>7.757741764227205</v>
+        <v>2.062990126380413</v>
       </c>
       <c r="F4">
-        <v>1.729699976364543</v>
+        <v>0.5226897031250957</v>
       </c>
       <c r="G4">
-        <v>2.078006857708601</v>
+        <v>0.4022777247622571</v>
       </c>
       <c r="H4">
-        <v>0.8334130474947301</v>
+        <v>0.4623397990722822</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>30.59341807262405</v>
+        <v>8.547226328027477</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1324656554339754</v>
+        <v>0.03976497353851016</v>
       </c>
       <c r="D5">
-        <v>0.07075620915483705</v>
+        <v>0.0008401622193687786</v>
       </c>
       <c r="E5">
-        <v>7.285038345442615</v>
+        <v>1.978528536198098</v>
       </c>
       <c r="F5">
-        <v>1.574794728280949</v>
+        <v>0.5212494399959269</v>
       </c>
       <c r="G5">
-        <v>1.88336452048506</v>
+        <v>0.3989769188056442</v>
       </c>
       <c r="H5">
-        <v>0.7529856720836108</v>
+        <v>0.4659972189400889</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>28.80542085647295</v>
+        <v>8.207593232675663</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1312512162114814</v>
+        <v>0.03952628276296366</v>
       </c>
       <c r="D6">
-        <v>0.06917835066611211</v>
+        <v>0.0008543151175466335</v>
       </c>
       <c r="E6">
-        <v>7.209400492230543</v>
+        <v>1.964506667977503</v>
       </c>
       <c r="F6">
-        <v>1.550470816832615</v>
+        <v>0.5210472808252149</v>
       </c>
       <c r="G6">
-        <v>1.852836062992253</v>
+        <v>0.3984686256794703</v>
       </c>
       <c r="H6">
-        <v>0.7404530121146138</v>
+        <v>0.4666310724721967</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>28.51816717112064</v>
+        <v>8.151186107558942</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1398288997653481</v>
+        <v>0.04118569121158089</v>
       </c>
       <c r="D7">
-        <v>0.08082964902652101</v>
+        <v>0.0007654482138796936</v>
       </c>
       <c r="E7">
-        <v>7.751155462042504</v>
+        <v>2.061850833516871</v>
       </c>
       <c r="F7">
-        <v>1.727508470881887</v>
+        <v>0.5226677813914051</v>
       </c>
       <c r="G7">
-        <v>2.075250465101789</v>
+        <v>0.4022305182222254</v>
       </c>
       <c r="H7">
-        <v>0.8322681556577436</v>
+        <v>0.4623873347480014</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>30.56859266763036</v>
+        <v>8.542646605262803</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1839127687632072</v>
+        <v>0.04857731383388852</v>
       </c>
       <c r="D8">
-        <v>0.1652555190990226</v>
+        <v>0.0006186665077514419</v>
       </c>
       <c r="E8">
-        <v>10.95501689255536</v>
+        <v>2.492047840321703</v>
       </c>
       <c r="F8">
-        <v>2.879575655086754</v>
+        <v>0.5353909941244552</v>
       </c>
       <c r="G8">
-        <v>3.535278656228996</v>
+        <v>0.4248625661250429</v>
       </c>
       <c r="H8">
-        <v>1.455578772520653</v>
+        <v>0.4476312315246105</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>42.30751942081281</v>
+        <v>10.26922674708163</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1839127687632072</v>
+        <v>0.06335983996039829</v>
       </c>
       <c r="D9">
-        <v>0.1652555190990226</v>
+        <v>0.001349770926923455</v>
       </c>
       <c r="E9">
-        <v>10.95501689255536</v>
+        <v>3.340325084742744</v>
       </c>
       <c r="F9">
-        <v>2.879575655086754</v>
+        <v>0.5823226654829483</v>
       </c>
       <c r="G9">
-        <v>3.535278656228996</v>
+        <v>0.4933925379015704</v>
       </c>
       <c r="H9">
-        <v>1.455578772520653</v>
+        <v>0.4340929494770478</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>42.30751942081281</v>
+        <v>13.66070045015778</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1839127687632072</v>
+        <v>0.07443632783397902</v>
       </c>
       <c r="D10">
-        <v>0.1652555190990226</v>
+        <v>0.002644709187007876</v>
       </c>
       <c r="E10">
-        <v>10.95501689255536</v>
+        <v>3.969001791628386</v>
       </c>
       <c r="F10">
-        <v>2.879575655086754</v>
+        <v>0.6321198970408801</v>
       </c>
       <c r="G10">
-        <v>3.535278656228996</v>
+        <v>0.5608882597984461</v>
       </c>
       <c r="H10">
-        <v>1.455578772520653</v>
+        <v>0.4346366992823789</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>42.30751942081281</v>
+        <v>16.16539769423957</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1839127687632072</v>
+        <v>0.07953162068110942</v>
       </c>
       <c r="D11">
-        <v>0.1652555190990226</v>
+        <v>0.003430548094227603</v>
       </c>
       <c r="E11">
-        <v>10.95501689255536</v>
+        <v>4.25683798338116</v>
       </c>
       <c r="F11">
-        <v>2.879575655086754</v>
+        <v>0.6585426761854052</v>
       </c>
       <c r="G11">
-        <v>3.535278656228996</v>
+        <v>0.5958784746501919</v>
       </c>
       <c r="H11">
-        <v>1.455578772520653</v>
+        <v>0.4374168726635617</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>42.30751942081281</v>
+        <v>17.31003900496171</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1839127687632072</v>
+        <v>0.08147001489831496</v>
       </c>
       <c r="D12">
-        <v>0.1652555190990226</v>
+        <v>0.00375929470227554</v>
       </c>
       <c r="E12">
-        <v>10.95501689255536</v>
+        <v>4.36615889020851</v>
       </c>
       <c r="F12">
-        <v>2.879575655086754</v>
+        <v>0.6691292208065818</v>
       </c>
       <c r="G12">
-        <v>3.535278656228996</v>
+        <v>0.6097939949030149</v>
       </c>
       <c r="H12">
-        <v>1.455578772520653</v>
+        <v>0.4388562821453661</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>42.30751942081281</v>
+        <v>17.74445198304909</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1839127687632072</v>
+        <v>0.08105213740815032</v>
       </c>
       <c r="D13">
-        <v>0.1652555190990226</v>
+        <v>0.003687059342965426</v>
       </c>
       <c r="E13">
-        <v>10.95501689255536</v>
+        <v>4.342599305236945</v>
       </c>
       <c r="F13">
-        <v>2.879575655086754</v>
+        <v>0.6668227479564166</v>
       </c>
       <c r="G13">
-        <v>3.535278656228996</v>
+        <v>0.606766629013805</v>
       </c>
       <c r="H13">
-        <v>1.455578772520653</v>
+        <v>0.4385287147418353</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>42.30751942081281</v>
+        <v>17.65084706136957</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1839127687632072</v>
+        <v>0.07969091015532115</v>
       </c>
       <c r="D14">
-        <v>0.1652555190990226</v>
+        <v>0.003456952528408053</v>
       </c>
       <c r="E14">
-        <v>10.95501689255536</v>
+        <v>4.265825044061842</v>
       </c>
       <c r="F14">
-        <v>2.879575655086754</v>
+        <v>0.6594017679050239</v>
       </c>
       <c r="G14">
-        <v>3.535278656228996</v>
+        <v>0.597009684273246</v>
       </c>
       <c r="H14">
-        <v>1.455578772520653</v>
+        <v>0.4375274126534805</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>42.30751942081281</v>
+        <v>17.34575787766994</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1839127687632072</v>
+        <v>0.07885830458093324</v>
       </c>
       <c r="D15">
-        <v>0.1652555190990226</v>
+        <v>0.003320152708377933</v>
       </c>
       <c r="E15">
-        <v>10.95501689255536</v>
+        <v>4.218842543404605</v>
       </c>
       <c r="F15">
-        <v>2.879575655086754</v>
+        <v>0.6549330274420129</v>
       </c>
       <c r="G15">
-        <v>3.535278656228996</v>
+        <v>0.5911214450334512</v>
       </c>
       <c r="H15">
-        <v>1.455578772520653</v>
+        <v>0.4369651210585346</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42.30751942081281</v>
+        <v>17.15901375297642</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1839127687632072</v>
+        <v>0.07410454247632003</v>
       </c>
       <c r="D16">
-        <v>0.1652555190990226</v>
+        <v>0.00259755344213275</v>
       </c>
       <c r="E16">
-        <v>10.95501689255536</v>
+        <v>3.950233027485979</v>
       </c>
       <c r="F16">
-        <v>2.879575655086754</v>
+        <v>0.630472226484855</v>
       </c>
       <c r="G16">
-        <v>3.535278656228996</v>
+        <v>0.5586919542831197</v>
       </c>
       <c r="H16">
-        <v>1.455578772520653</v>
+        <v>0.4345078627145256</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>42.30751942081281</v>
+        <v>16.09071555772391</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1839127687632072</v>
+        <v>0.07120329111762658</v>
       </c>
       <c r="D17">
-        <v>0.1652555190990226</v>
+        <v>0.002206643721287094</v>
       </c>
       <c r="E17">
-        <v>10.95501689255536</v>
+        <v>3.785962568559455</v>
       </c>
       <c r="F17">
-        <v>2.879575655086754</v>
+        <v>0.616458748576548</v>
       </c>
       <c r="G17">
-        <v>3.535278656228996</v>
+        <v>0.5399294127301459</v>
       </c>
       <c r="H17">
-        <v>1.455578772520653</v>
+        <v>0.433664692835606</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>42.30751942081281</v>
+        <v>15.4368341768303</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1839127687632072</v>
+        <v>0.06953984048251982</v>
       </c>
       <c r="D18">
-        <v>0.1652555190990226</v>
+        <v>0.00200014060994036</v>
       </c>
       <c r="E18">
-        <v>10.95501689255536</v>
+        <v>3.691648706791796</v>
       </c>
       <c r="F18">
-        <v>2.879575655086754</v>
+        <v>0.6087509582554702</v>
       </c>
       <c r="G18">
-        <v>3.535278656228996</v>
+        <v>0.5295380244270973</v>
       </c>
       <c r="H18">
-        <v>1.455578772520653</v>
+        <v>0.4334167148416839</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>42.30751942081281</v>
+        <v>15.06121872110322</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1839127687632072</v>
+        <v>0.06897750697700644</v>
       </c>
       <c r="D19">
-        <v>0.1652555190990226</v>
+        <v>0.001933287248821358</v>
       </c>
       <c r="E19">
-        <v>10.95501689255536</v>
+        <v>3.659743204524489</v>
       </c>
       <c r="F19">
-        <v>2.879575655086754</v>
+        <v>0.6062006102391138</v>
       </c>
       <c r="G19">
-        <v>3.535278656228996</v>
+        <v>0.5260869816304989</v>
       </c>
       <c r="H19">
-        <v>1.455578772520653</v>
+        <v>0.4333727941209986</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>42.30751942081281</v>
+        <v>14.93411814759509</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1839127687632072</v>
+        <v>0.07151158304687044</v>
       </c>
       <c r="D20">
-        <v>0.1652555190990226</v>
+        <v>0.002246338623692168</v>
       </c>
       <c r="E20">
-        <v>10.95501689255536</v>
+        <v>3.803431426514067</v>
       </c>
       <c r="F20">
-        <v>2.879575655086754</v>
+        <v>0.6179137621673618</v>
       </c>
       <c r="G20">
-        <v>3.535278656228996</v>
+        <v>0.5418849372516092</v>
       </c>
       <c r="H20">
-        <v>1.455578772520653</v>
+        <v>0.4337297636109554</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>42.30751942081281</v>
+        <v>15.5063898570225</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1839127687632072</v>
+        <v>0.08009048708615296</v>
       </c>
       <c r="D21">
-        <v>0.1652555190990226</v>
+        <v>0.003523670801270029</v>
       </c>
       <c r="E21">
-        <v>10.95501689255536</v>
+        <v>4.288366235183275</v>
       </c>
       <c r="F21">
-        <v>2.879575655086754</v>
+        <v>0.6615654074474691</v>
       </c>
       <c r="G21">
-        <v>3.535278656228996</v>
+        <v>0.5998570690650524</v>
       </c>
       <c r="H21">
-        <v>1.455578772520653</v>
+        <v>0.4378108420105775</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>42.30751942081281</v>
+        <v>17.43534209846513</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1839127687632072</v>
+        <v>0.08574967226367392</v>
       </c>
       <c r="D22">
-        <v>0.1652555190990226</v>
+        <v>0.004541614886825585</v>
       </c>
       <c r="E22">
-        <v>10.95501689255536</v>
+        <v>4.607216142689538</v>
       </c>
       <c r="F22">
-        <v>2.879575655086754</v>
+        <v>0.6934992211781577</v>
       </c>
       <c r="G22">
-        <v>3.535278656228996</v>
+        <v>0.6416489846134823</v>
       </c>
       <c r="H22">
-        <v>1.455578772520653</v>
+        <v>0.4427428675171541</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.30751942081281</v>
+        <v>18.70174267771336</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1839127687632072</v>
+        <v>0.08272419443768797</v>
       </c>
       <c r="D23">
-        <v>0.1652555190990226</v>
+        <v>0.003980563197403697</v>
       </c>
       <c r="E23">
-        <v>10.95501689255536</v>
+        <v>4.436843977638432</v>
       </c>
       <c r="F23">
-        <v>2.879575655086754</v>
+        <v>0.6761306358064303</v>
       </c>
       <c r="G23">
-        <v>3.535278656228996</v>
+        <v>0.6189696916786431</v>
       </c>
       <c r="H23">
-        <v>1.455578772520653</v>
+        <v>0.4398955955701638</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.30751942081281</v>
+        <v>18.02524370932122</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1839127687632072</v>
+        <v>0.07137219025324271</v>
       </c>
       <c r="D24">
-        <v>0.1652555190990226</v>
+        <v>0.002228335971500073</v>
       </c>
       <c r="E24">
-        <v>10.95501689255536</v>
+        <v>3.795533363275524</v>
       </c>
       <c r="F24">
-        <v>2.879575655086754</v>
+        <v>0.6172548671648457</v>
       </c>
       <c r="G24">
-        <v>3.535278656228996</v>
+        <v>0.5409996165728614</v>
       </c>
       <c r="H24">
-        <v>1.455578772520653</v>
+        <v>0.4336996093026073</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>42.30751942081281</v>
+        <v>15.47494278500773</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1839127687632072</v>
+        <v>0.05932593360726912</v>
       </c>
       <c r="D25">
-        <v>0.1652555190990226</v>
+        <v>0.00102928009849812</v>
       </c>
       <c r="E25">
-        <v>10.95501689255536</v>
+        <v>3.110090806698452</v>
       </c>
       <c r="F25">
-        <v>2.879575655086754</v>
+        <v>0.5670805662842611</v>
       </c>
       <c r="G25">
-        <v>3.535278656228996</v>
+        <v>0.4720245112656016</v>
       </c>
       <c r="H25">
-        <v>1.455578772520653</v>
+        <v>0.4359960543535237</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>42.30751942081281</v>
+        <v>12.741680463406</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_124/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05059810356398486</v>
+        <v>0.199675366482694</v>
       </c>
       <c r="D2">
-        <v>0.0006430556880925309</v>
+        <v>0.2117557095826808</v>
       </c>
       <c r="E2">
-        <v>2.608837342548384</v>
+        <v>12.42516102330765</v>
       </c>
       <c r="F2">
-        <v>0.5402577795658345</v>
+        <v>3.444067105310054</v>
       </c>
       <c r="G2">
-        <v>0.4325427887200703</v>
+        <v>4.259060647519505</v>
       </c>
       <c r="H2">
-        <v>0.4446359103562543</v>
+        <v>1.773134680183745</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.73710316726812</v>
+        <v>47.42305542154821</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04475810675957348</v>
+        <v>0.1595982939292355</v>
       </c>
       <c r="D3">
-        <v>0.0006460611429641716</v>
+        <v>0.1127729317898978</v>
       </c>
       <c r="E3">
-        <v>2.27040816450031</v>
+        <v>9.080895116182461</v>
       </c>
       <c r="F3">
-        <v>0.5277602964918913</v>
+        <v>2.186922047877388</v>
       </c>
       <c r="G3">
-        <v>0.4120367656891659</v>
+        <v>2.654805571203184</v>
       </c>
       <c r="H3">
-        <v>0.4544622653583588</v>
+        <v>1.076112572712333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.380339139148703</v>
+        <v>35.52704901494047</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04120514426897159</v>
+        <v>0.1399314181690556</v>
       </c>
       <c r="D4">
-        <v>0.0007645364648176667</v>
+        <v>0.08097626483732245</v>
       </c>
       <c r="E4">
-        <v>2.062990126380413</v>
+        <v>7.757741764227148</v>
       </c>
       <c r="F4">
-        <v>0.5226897031250957</v>
+        <v>1.729699976364543</v>
       </c>
       <c r="G4">
-        <v>0.4022777247622571</v>
+        <v>2.078006857708573</v>
       </c>
       <c r="H4">
-        <v>0.4623397990722822</v>
+        <v>0.8334130474948438</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.547226328027477</v>
+        <v>30.59341807262405</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03976497353851016</v>
+        <v>0.1324656554340038</v>
       </c>
       <c r="D5">
-        <v>0.0008401622193687786</v>
+        <v>0.07075620915467939</v>
       </c>
       <c r="E5">
-        <v>1.978528536198098</v>
+        <v>7.28503834544253</v>
       </c>
       <c r="F5">
-        <v>0.5212494399959269</v>
+        <v>1.574794728280963</v>
       </c>
       <c r="G5">
-        <v>0.3989769188056442</v>
+        <v>1.883364520485031</v>
       </c>
       <c r="H5">
-        <v>0.4659972189400889</v>
+        <v>0.7529856720835824</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.207593232675663</v>
+        <v>28.80542085647295</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03952628276296366</v>
+        <v>0.131251216211453</v>
       </c>
       <c r="D6">
-        <v>0.0008543151175466335</v>
+        <v>0.06917835066599554</v>
       </c>
       <c r="E6">
-        <v>1.964506667977503</v>
+        <v>7.209400492230486</v>
       </c>
       <c r="F6">
-        <v>0.5210472808252149</v>
+        <v>1.550470816832586</v>
       </c>
       <c r="G6">
-        <v>0.3984686256794703</v>
+        <v>1.852836062992196</v>
       </c>
       <c r="H6">
-        <v>0.4666310724721967</v>
+        <v>0.7404530121145569</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.151186107558942</v>
+        <v>28.51816717112058</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04118569121158089</v>
+        <v>0.1398288997657318</v>
       </c>
       <c r="D7">
-        <v>0.0007654482138796936</v>
+        <v>0.08082964902646328</v>
       </c>
       <c r="E7">
-        <v>2.061850833516871</v>
+        <v>7.751155462042533</v>
       </c>
       <c r="F7">
-        <v>0.5226677813914051</v>
+        <v>1.727508470881901</v>
       </c>
       <c r="G7">
-        <v>0.4022305182222254</v>
+        <v>2.075250465101789</v>
       </c>
       <c r="H7">
-        <v>0.4623873347480014</v>
+        <v>0.8322681556577436</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.542646605262803</v>
+        <v>30.5685926676303</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04857731383388852</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D8">
-        <v>0.0006186665077514419</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E8">
-        <v>2.492047840321703</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F8">
-        <v>0.5353909941244552</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G8">
-        <v>0.4248625661250429</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H8">
-        <v>0.4476312315246105</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.26922674708163</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06335983996039829</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D9">
-        <v>0.001349770926923455</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E9">
-        <v>3.340325084742744</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F9">
-        <v>0.5823226654829483</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G9">
-        <v>0.4933925379015704</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H9">
-        <v>0.4340929494770478</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.66070045015778</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07443632783397902</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D10">
-        <v>0.002644709187007876</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E10">
-        <v>3.969001791628386</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F10">
-        <v>0.6321198970408801</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G10">
-        <v>0.5608882597984461</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H10">
-        <v>0.4346366992823789</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.16539769423957</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07953162068110942</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D11">
-        <v>0.003430548094227603</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E11">
-        <v>4.25683798338116</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F11">
-        <v>0.6585426761854052</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G11">
-        <v>0.5958784746501919</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H11">
-        <v>0.4374168726635617</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.31003900496171</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08147001489831496</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D12">
-        <v>0.00375929470227554</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E12">
-        <v>4.36615889020851</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F12">
-        <v>0.6691292208065818</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G12">
-        <v>0.6097939949030149</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H12">
-        <v>0.4388562821453661</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.74445198304909</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08105213740815032</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D13">
-        <v>0.003687059342965426</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E13">
-        <v>4.342599305236945</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F13">
-        <v>0.6668227479564166</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G13">
-        <v>0.606766629013805</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H13">
-        <v>0.4385287147418353</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.65084706136957</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07969091015532115</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D14">
-        <v>0.003456952528408053</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E14">
-        <v>4.265825044061842</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F14">
-        <v>0.6594017679050239</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G14">
-        <v>0.597009684273246</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H14">
-        <v>0.4375274126534805</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.34575787766994</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07885830458093324</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D15">
-        <v>0.003320152708377933</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E15">
-        <v>4.218842543404605</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F15">
-        <v>0.6549330274420129</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G15">
-        <v>0.5911214450334512</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H15">
-        <v>0.4369651210585346</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.15901375297642</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07410454247632003</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D16">
-        <v>0.00259755344213275</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E16">
-        <v>3.950233027485979</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F16">
-        <v>0.630472226484855</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G16">
-        <v>0.5586919542831197</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H16">
-        <v>0.4345078627145256</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.09071555772391</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07120329111762658</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D17">
-        <v>0.002206643721287094</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E17">
-        <v>3.785962568559455</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F17">
-        <v>0.616458748576548</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G17">
-        <v>0.5399294127301459</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H17">
-        <v>0.433664692835606</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.4368341768303</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06953984048251982</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D18">
-        <v>0.00200014060994036</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E18">
-        <v>3.691648706791796</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F18">
-        <v>0.6087509582554702</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G18">
-        <v>0.5295380244270973</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H18">
-        <v>0.4334167148416839</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.06121872110322</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06897750697700644</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D19">
-        <v>0.001933287248821358</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E19">
-        <v>3.659743204524489</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F19">
-        <v>0.6062006102391138</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G19">
-        <v>0.5260869816304989</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H19">
-        <v>0.4333727941209986</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.93411814759509</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07151158304687044</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D20">
-        <v>0.002246338623692168</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E20">
-        <v>3.803431426514067</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F20">
-        <v>0.6179137621673618</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G20">
-        <v>0.5418849372516092</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H20">
-        <v>0.4337297636109554</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.5063898570225</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08009048708615296</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D21">
-        <v>0.003523670801270029</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E21">
-        <v>4.288366235183275</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F21">
-        <v>0.6615654074474691</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G21">
-        <v>0.5998570690650524</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H21">
-        <v>0.4378108420105775</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.43534209846513</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08574967226367392</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D22">
-        <v>0.004541614886825585</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E22">
-        <v>4.607216142689538</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F22">
-        <v>0.6934992211781577</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G22">
-        <v>0.6416489846134823</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H22">
-        <v>0.4427428675171541</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.70174267771336</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08272419443768797</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D23">
-        <v>0.003980563197403697</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E23">
-        <v>4.436843977638432</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F23">
-        <v>0.6761306358064303</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G23">
-        <v>0.6189696916786431</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H23">
-        <v>0.4398955955701638</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.02524370932122</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07137219025324271</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D24">
-        <v>0.002228335971500073</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E24">
-        <v>3.795533363275524</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F24">
-        <v>0.6172548671648457</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G24">
-        <v>0.5409996165728614</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H24">
-        <v>0.4336996093026073</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.47494278500773</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05932593360726912</v>
+        <v>0.183912768763193</v>
       </c>
       <c r="D25">
-        <v>0.00102928009849812</v>
+        <v>0.1652555190990235</v>
       </c>
       <c r="E25">
-        <v>3.110090806698452</v>
+        <v>10.95501689255542</v>
       </c>
       <c r="F25">
-        <v>0.5670805662842611</v>
+        <v>2.879575655086896</v>
       </c>
       <c r="G25">
-        <v>0.4720245112656016</v>
+        <v>3.535278656229139</v>
       </c>
       <c r="H25">
-        <v>0.4359960543535237</v>
+        <v>1.455578772520624</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.741680463406</v>
+        <v>42.30751942081332</v>
       </c>
       <c r="N25">
         <v>0</v>
